--- a/input/rst_cao_njv.xlsx
+++ b/input/rst_cao_njv.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11028"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NJV\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trinhlk2/Desktop/superai/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E7D57B-3ED2-1E43-973A-21966D20B875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RTS &gt;10%" sheetId="3" r:id="rId1"/>
@@ -626,7 +627,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -966,21 +967,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -991,7 +992,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>127</v>
       </c>
@@ -1002,7 +1003,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>127</v>
       </c>
@@ -1013,7 +1014,7 @@
         <v>0.145985401459854</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>127</v>
       </c>
@@ -1024,7 +1025,7 @@
         <v>0.12258064516129032</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>127</v>
       </c>
@@ -1035,7 +1036,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>122</v>
       </c>
@@ -1046,7 +1047,7 @@
         <v>0.20512820512820512</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>122</v>
       </c>
@@ -1057,7 +1058,7 @@
         <v>0.15104166666666666</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>122</v>
       </c>
@@ -1068,7 +1069,7 @@
         <v>0.13076923076923078</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>122</v>
       </c>
@@ -1079,7 +1080,7 @@
         <v>0.12841530054644809</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>122</v>
       </c>
@@ -1090,7 +1091,7 @@
         <v>0.12412587412587413</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>122</v>
       </c>
@@ -1101,7 +1102,7 @@
         <v>0.12154696132596685</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>157</v>
       </c>
@@ -1112,7 +1113,7 @@
         <v>0.10344827586206896</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>118</v>
       </c>
@@ -1123,7 +1124,7 @@
         <v>0.13149847094801223</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>118</v>
       </c>
@@ -1134,7 +1135,7 @@
         <v>0.12457912457912458</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>118</v>
       </c>
@@ -1145,7 +1146,7 @@
         <v>0.11409395973154363</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>116</v>
       </c>
@@ -1156,7 +1157,7 @@
         <v>0.12857142857142856</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>116</v>
       </c>
@@ -1167,7 +1168,7 @@
         <v>0.11194029850746269</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>105</v>
       </c>
@@ -1178,7 +1179,7 @@
         <v>0.17518248175182483</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>105</v>
       </c>
@@ -1189,7 +1190,7 @@
         <v>0.13372093023255813</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>105</v>
       </c>
@@ -1200,7 +1201,7 @@
         <v>0.12631578947368421</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>105</v>
       </c>
@@ -1211,7 +1212,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>105</v>
       </c>
@@ -1222,7 +1223,7 @@
         <v>0.12244897959183673</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>105</v>
       </c>
@@ -1233,7 +1234,7 @@
         <v>0.12015503875968993</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>105</v>
       </c>
@@ -1244,7 +1245,7 @@
         <v>0.11926605504587157</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>105</v>
       </c>
@@ -1255,7 +1256,7 @@
         <v>0.10450819672131148</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>105</v>
       </c>
@@ -1266,7 +1267,7 @@
         <v>0.10344827586206896</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>113</v>
       </c>
@@ -1277,7 +1278,7 @@
         <v>0.15760869565217392</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>113</v>
       </c>
@@ -1288,7 +1289,7 @@
         <v>0.14336917562724014</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>103</v>
       </c>
@@ -1299,7 +1300,7 @@
         <v>0.12366737739872068</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>98</v>
       </c>
@@ -1310,7 +1311,7 @@
         <v>0.17241379310344829</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>98</v>
       </c>
@@ -1321,7 +1322,7 @@
         <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>98</v>
       </c>
@@ -1332,7 +1333,7 @@
         <v>0.13043478260869565</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>98</v>
       </c>
@@ -1343,7 +1344,7 @@
         <v>0.10909090909090909</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>98</v>
       </c>
@@ -1354,7 +1355,7 @@
         <v>0.10526315789473684</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>98</v>
       </c>
@@ -1365,7 +1366,7 @@
         <v>0.10204081632653061</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>100</v>
       </c>
@@ -1376,7 +1377,7 @@
         <v>0.16346153846153846</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>100</v>
       </c>
@@ -1387,7 +1388,7 @@
         <v>0.11486486486486487</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>94</v>
       </c>
@@ -1398,7 +1399,7 @@
         <v>0.14423076923076922</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>94</v>
       </c>
@@ -1409,7 +1410,7 @@
         <v>0.13095238095238096</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>94</v>
       </c>
@@ -1420,7 +1421,7 @@
         <v>0.1174496644295302</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>94</v>
       </c>
@@ -1431,7 +1432,7 @@
         <v>0.10169491525423729</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>92</v>
       </c>
@@ -1442,7 +1443,7 @@
         <v>0.11581291759465479</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>92</v>
       </c>
@@ -1453,7 +1454,7 @@
         <v>0.11475409836065574</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>92</v>
       </c>
@@ -1464,7 +1465,7 @@
         <v>0.1118421052631579</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>149</v>
       </c>
@@ -1475,7 +1476,7 @@
         <v>0.13636363636363635</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>82</v>
       </c>
@@ -1486,7 +1487,7 @@
         <v>0.26315789473684209</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>82</v>
       </c>
@@ -1497,7 +1498,7 @@
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>82</v>
       </c>
@@ -1508,7 +1509,7 @@
         <v>0.14814814814814814</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>82</v>
       </c>
@@ -1519,7 +1520,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>82</v>
       </c>
@@ -1530,7 +1531,7 @@
         <v>0.12264150943396226</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>82</v>
       </c>
@@ -1541,7 +1542,7 @@
         <v>0.1048951048951049</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>87</v>
       </c>
@@ -1552,7 +1553,7 @@
         <v>0.22222222222222221</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>87</v>
       </c>
@@ -1563,7 +1564,7 @@
         <v>0.21698113207547171</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>87</v>
       </c>
@@ -1574,7 +1575,7 @@
         <v>0.15028901734104047</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>87</v>
       </c>
@@ -1585,7 +1586,7 @@
         <v>0.10429447852760736</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>75</v>
       </c>
@@ -1596,7 +1597,7 @@
         <v>0.19718309859154928</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>75</v>
       </c>
@@ -1607,7 +1608,7 @@
         <v>0.10227272727272728</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>77</v>
       </c>
@@ -1618,7 +1619,7 @@
         <v>0.17985611510791366</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>77</v>
       </c>
@@ -1629,7 +1630,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>77</v>
       </c>
@@ -1640,7 +1641,7 @@
         <v>0.13259668508287292</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>77</v>
       </c>
@@ -1651,7 +1652,7 @@
         <v>0.11764705882352941</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>77</v>
       </c>
@@ -1662,7 +1663,7 @@
         <v>0.11464968152866242</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -1673,7 +1674,7 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -1684,7 +1685,7 @@
         <v>0.17241379310344829</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -1695,7 +1696,7 @@
         <v>0.16470588235294117</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -1706,7 +1707,7 @@
         <v>0.16019417475728157</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -1717,7 +1718,7 @@
         <v>0.15862068965517243</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>64</v>
       </c>
@@ -1728,7 +1729,7 @@
         <v>0.15119363395225463</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>64</v>
       </c>
@@ -1739,7 +1740,7 @@
         <v>0.14117647058823529</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>64</v>
       </c>
@@ -1750,7 +1751,7 @@
         <v>0.12581344902386118</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>64</v>
       </c>
@@ -1761,7 +1762,7 @@
         <v>0.11620795107033639</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>64</v>
       </c>
@@ -1772,7 +1773,7 @@
         <v>0.11076923076923077</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>64</v>
       </c>
@@ -1783,7 +1784,7 @@
         <v>0.11034004163775156</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>64</v>
       </c>
@@ -1794,7 +1795,7 @@
         <v>0.1079136690647482</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>64</v>
       </c>
@@ -1805,7 +1806,7 @@
         <v>0.10714285714285714</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>62</v>
       </c>
@@ -1816,7 +1817,7 @@
         <v>0.18978102189781021</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>57</v>
       </c>
@@ -1827,7 +1828,7 @@
         <v>0.18085106382978725</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>57</v>
       </c>
@@ -1838,7 +1839,7 @@
         <v>0.1388888888888889</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>57</v>
       </c>
@@ -1849,7 +1850,7 @@
         <v>0.10674157303370786</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>57</v>
       </c>
@@ -1860,7 +1861,7 @@
         <v>0.1043956043956044</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>166</v>
       </c>
@@ -1871,7 +1872,7 @@
         <v>0.16923076923076924</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>166</v>
       </c>
@@ -1882,7 +1883,7 @@
         <v>0.15254237288135594</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>166</v>
       </c>
@@ -1893,7 +1894,7 @@
         <v>0.11475409836065574</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>55</v>
       </c>
@@ -1904,7 +1905,7 @@
         <v>0.15573770491803279</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>55</v>
       </c>
@@ -1915,7 +1916,7 @@
         <v>0.12658227848101267</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>55</v>
       </c>
@@ -1926,7 +1927,7 @@
         <v>0.11842105263157894</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>52</v>
       </c>
@@ -1937,7 +1938,7 @@
         <v>0.20338983050847459</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>52</v>
       </c>
@@ -1948,7 +1949,7 @@
         <v>0.17142857142857143</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>52</v>
       </c>
@@ -1959,7 +1960,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>52</v>
       </c>
@@ -1970,7 +1971,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>52</v>
       </c>
@@ -1981,7 +1982,7 @@
         <v>0.11731843575418995</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>49</v>
       </c>
@@ -1992,7 +1993,7 @@
         <v>0.13223140495867769</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>49</v>
       </c>
@@ -2003,7 +2004,7 @@
         <v>0.11224489795918367</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>46</v>
       </c>
@@ -2014,7 +2015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>46</v>
       </c>
@@ -2025,7 +2026,7 @@
         <v>0.1393939393939394</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>46</v>
       </c>
@@ -2036,7 +2037,7 @@
         <v>0.11510791366906475</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>46</v>
       </c>
@@ -2047,7 +2048,7 @@
         <v>0.10087719298245613</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>45</v>
       </c>
@@ -2058,7 +2059,7 @@
         <v>0.10909090909090909</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>158</v>
       </c>
@@ -2069,7 +2070,7 @@
         <v>0.10056657223796034</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>41</v>
       </c>
@@ -2080,7 +2081,7 @@
         <v>0.34523809523809523</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>41</v>
       </c>
@@ -2091,7 +2092,7 @@
         <v>0.18705035971223022</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>41</v>
       </c>
@@ -2102,7 +2103,7 @@
         <v>0.12648221343873517</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>39</v>
       </c>
@@ -2113,7 +2114,7 @@
         <v>0.11170212765957446</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>144</v>
       </c>
@@ -2124,7 +2125,7 @@
         <v>0.19594594594594594</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>144</v>
       </c>
@@ -2135,7 +2136,7 @@
         <v>0.10534351145038168</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>144</v>
       </c>
@@ -2146,7 +2147,7 @@
         <v>0.10291858678955453</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>37</v>
       </c>
@@ -2157,7 +2158,7 @@
         <v>0.17224880382775121</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>37</v>
       </c>
@@ -2168,7 +2169,7 @@
         <v>0.10775862068965517</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>37</v>
       </c>
@@ -2179,7 +2180,7 @@
         <v>0.10344827586206896</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>30</v>
       </c>
@@ -2190,7 +2191,7 @@
         <v>0.22556390977443608</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>30</v>
       </c>
@@ -2201,7 +2202,7 @@
         <v>0.18857142857142858</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>30</v>
       </c>
@@ -2212,7 +2213,7 @@
         <v>0.1348314606741573</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>30</v>
       </c>
@@ -2223,7 +2224,7 @@
         <v>0.13013698630136986</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>30</v>
       </c>
@@ -2234,7 +2235,7 @@
         <v>0.12418300653594772</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>30</v>
       </c>
@@ -2245,7 +2246,7 @@
         <v>0.10526315789473684</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>25</v>
       </c>
@@ -2256,7 +2257,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>25</v>
       </c>
@@ -2267,7 +2268,7 @@
         <v>0.18103448275862069</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>25</v>
       </c>
@@ -2278,7 +2279,7 @@
         <v>0.14925373134328357</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>25</v>
       </c>
@@ -2289,7 +2290,7 @@
         <v>0.13043478260869565</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>25</v>
       </c>
@@ -2300,7 +2301,7 @@
         <v>0.11343283582089553</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>25</v>
       </c>
@@ -2311,7 +2312,7 @@
         <v>0.10169491525423729</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>23</v>
       </c>
@@ -2322,7 +2323,7 @@
         <v>0.12149532710280374</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>23</v>
       </c>
@@ -2333,7 +2334,7 @@
         <v>0.1037037037037037</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>141</v>
       </c>
@@ -2344,7 +2345,7 @@
         <v>0.11194029850746269</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>21</v>
       </c>
@@ -2355,7 +2356,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>21</v>
       </c>
@@ -2366,7 +2367,7 @@
         <v>0.104</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>18</v>
       </c>
@@ -2377,7 +2378,7 @@
         <v>0.14102564102564102</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>18</v>
       </c>
@@ -2388,7 +2389,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>18</v>
       </c>
@@ -2399,7 +2400,7 @@
         <v>0.11989100817438691</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>18</v>
       </c>
@@ -2410,7 +2411,7 @@
         <v>0.10975609756097561</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>17</v>
       </c>
@@ -2421,7 +2422,7 @@
         <v>0.1891891891891892</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>17</v>
       </c>
@@ -2432,7 +2433,7 @@
         <v>0.12676056338028169</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>17</v>
       </c>
@@ -2443,7 +2444,7 @@
         <v>0.10101010101010101</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>9</v>
       </c>
@@ -2454,7 +2455,7 @@
         <v>0.17391304347826086</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>9</v>
       </c>
@@ -2465,7 +2466,7 @@
         <v>0.15384615384615385</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>9</v>
       </c>
@@ -2476,7 +2477,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>9</v>
       </c>
@@ -2487,7 +2488,7 @@
         <v>0.11904761904761904</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>9</v>
       </c>
@@ -2498,7 +2499,7 @@
         <v>0.11428571428571428</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>13</v>
       </c>
@@ -2509,7 +2510,7 @@
         <v>0.20121951219512196</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>13</v>
       </c>
@@ -2520,7 +2521,7 @@
         <v>0.13071895424836602</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>13</v>
       </c>
@@ -2531,7 +2532,7 @@
         <v>0.12682926829268293</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>6</v>
       </c>
@@ -2542,7 +2543,7 @@
         <v>0.13548387096774195</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>6</v>
       </c>
@@ -2553,7 +2554,7 @@
         <v>0.10909090909090909</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>5</v>
       </c>
@@ -2564,7 +2565,7 @@
         <v>0.10989010989010989</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>7</v>
       </c>
@@ -2575,7 +2576,7 @@
         <v>0.12860892388451445</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>7</v>
       </c>
@@ -2586,7 +2587,7 @@
         <v>0.10096153846153846</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>4</v>
       </c>
@@ -2597,7 +2598,7 @@
         <v>0.109375</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>4</v>
       </c>
@@ -2608,7 +2609,7 @@
         <v>0.10869565217391304</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>2</v>
       </c>
@@ -2619,7 +2620,7 @@
         <v>0.10687022900763359</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>2</v>
       </c>
@@ -2630,7 +2631,7 @@
         <v>0.1044776119402985</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>2</v>
       </c>
@@ -2642,7 +2643,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C167">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C167">
     <sortCondition descending="1" ref="C1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
